--- a/kittycommit2022.xlsx
+++ b/kittycommit2022.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>date</t>
   </si>
@@ -33,8 +33,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -47,6 +47,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -54,92 +90,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,6 +106,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -161,6 +130,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -171,21 +155,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,13 +200,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -218,7 +332,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -230,43 +350,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,109 +374,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,47 +405,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,6 +442,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -491,6 +480,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -499,10 +499,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -511,133 +511,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1002,7 +1002,7 @@
   <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1044,14 +1044,38 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="2"/>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>44569</v>
+      </c>
+      <c r="B4" s="1">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>44570</v>
+      </c>
+      <c r="B5" s="1">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>44573</v>
+      </c>
+      <c r="B6" s="1">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2"/>

--- a/kittycommit2022.xlsx
+++ b/kittycommit2022.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="4">
   <si>
     <t>date</t>
   </si>
@@ -33,10 +33,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -47,6 +47,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -56,35 +70,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -93,6 +94,37 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,22 +138,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -130,21 +146,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -153,9 +154,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,14 +171,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,37 +200,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,13 +260,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,55 +344,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,19 +362,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,43 +380,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,6 +424,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -438,21 +453,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,10 +499,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -511,133 +511,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1002,7 +1002,7 @@
   <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1077,14 +1077,38 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="2"/>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>44576</v>
+      </c>
+      <c r="B7" s="1">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>44580</v>
+      </c>
+      <c r="B8" s="1">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>44582</v>
+      </c>
+      <c r="B9" s="1">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2"/>

--- a/kittycommit2022.xlsx
+++ b/kittycommit2022.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="4">
   <si>
     <t>date</t>
   </si>
@@ -33,10 +33,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -48,6 +48,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -61,55 +75,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,11 +129,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -154,6 +145,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -163,14 +162,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,187 +200,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,6 +409,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -424,6 +433,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -435,24 +453,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,10 +499,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -511,31 +511,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -547,37 +550,34 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -586,58 +586,58 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1002,7 +1002,7 @@
   <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A1" sqref="A1:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1110,23 +1110,71 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="2"/>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>44599</v>
+      </c>
+      <c r="B10" s="1">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>44601</v>
+      </c>
+      <c r="B11" s="1">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>44601</v>
+      </c>
+      <c r="B12" s="1">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B13" s="1">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>44604</v>
+      </c>
+      <c r="B14" s="1">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>44604</v>
+      </c>
+      <c r="B15" s="1">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2"/>

--- a/kittycommit2022.xlsx
+++ b/kittycommit2022.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
   <si>
     <t>date</t>
   </si>
@@ -33,10 +33,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -48,36 +48,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,9 +76,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,14 +146,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -147,6 +156,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -154,38 +171,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,181 +200,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,6 +391,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -411,9 +420,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,21 +483,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -480,17 +491,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -499,10 +499,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -511,16 +511,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -529,115 +529,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1002,7 +1002,7 @@
   <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1176,14 +1176,38 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="2"/>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>44606</v>
+      </c>
+      <c r="B16" s="1">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>44606</v>
+      </c>
+      <c r="B17" s="1">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>44608</v>
+      </c>
+      <c r="B18" s="1">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2"/>

--- a/kittycommit2022.xlsx
+++ b/kittycommit2022.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="4">
   <si>
     <t>date</t>
   </si>
@@ -33,9 +33,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -47,6 +47,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -55,7 +78,84 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -69,123 +169,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,43 +200,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,139 +380,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,8 +396,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -420,11 +422,42 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -445,30 +478,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -482,15 +491,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -499,10 +499,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -511,133 +511,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1002,7 +1002,7 @@
   <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1209,23 +1209,71 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="2"/>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>44614</v>
+      </c>
+      <c r="B19" s="1">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
+        <v>44639</v>
+      </c>
+      <c r="B20" s="1">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>44640</v>
+      </c>
+      <c r="B21" s="1">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>44640</v>
+      </c>
+      <c r="B22" s="1">
+        <v>9</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>44642</v>
+      </c>
+      <c r="B23" s="1">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>44642</v>
+      </c>
+      <c r="B24" s="1">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="2"/>

--- a/kittycommit2022.xlsx
+++ b/kittycommit2022.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="4">
   <si>
     <t>date</t>
   </si>
@@ -47,85 +47,123 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -139,53 +177,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,187 +200,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,11 +396,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -420,11 +418,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -447,32 +466,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,10 +499,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -511,16 +511,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -529,115 +529,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1275,11 +1275,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="2"/>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="2"/>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>44645</v>
+      </c>
+      <c r="B25" s="1">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>44647</v>
+      </c>
+      <c r="B26" s="1">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="2"/>

--- a/kittycommit2022.xlsx
+++ b/kittycommit2022.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="28800" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="4">
   <si>
     <t>date</t>
   </si>
@@ -33,10 +33,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -55,21 +55,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -85,39 +93,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -136,24 +114,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,15 +140,52 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,67 +200,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,115 +362,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,15 +391,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -414,21 +405,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -452,7 +428,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,18 +437,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,6 +456,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -499,10 +499,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -511,133 +511,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1002,7 +1002,7 @@
   <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1297,35 +1297,115 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="2"/>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="2"/>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="2"/>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="2"/>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="2"/>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="2"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="2"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="2"/>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="2"/>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="2"/>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>44664</v>
+      </c>
+      <c r="B27" s="1">
+        <v>8</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>44668</v>
+      </c>
+      <c r="B28" s="1">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>44670</v>
+      </c>
+      <c r="B29" s="1">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>44696</v>
+      </c>
+      <c r="B30" s="1">
+        <v>8</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>44696</v>
+      </c>
+      <c r="B31" s="1">
+        <v>9</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>44701</v>
+      </c>
+      <c r="B32" s="1">
+        <v>9</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>44731</v>
+      </c>
+      <c r="B33" s="1">
+        <v>8</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>44733</v>
+      </c>
+      <c r="B34" s="1">
+        <v>10</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>44734</v>
+      </c>
+      <c r="B35" s="1">
+        <v>9</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>44735</v>
+      </c>
+      <c r="B36" s="1">
+        <v>9</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="2"/>
